--- a/FOIT_2123_Projekt/Innenausbau_Umzug/Innenausbau_Umzug.xlsx
+++ b/FOIT_2123_Projekt/Innenausbau_Umzug/Innenausbau_Umzug.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20394"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59CDFD71-84C5-4FE0-B7DA-C79A970FA9BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C66948-5976-4E7D-BC4A-CB01DE4DABB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28830" windowHeight="16110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1824,8 +1824,8 @@
   </sheetPr>
   <dimension ref="B1:BO19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="Y11" sqref="Y11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2153,7 +2153,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
@@ -2233,7 +2233,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
@@ -2313,7 +2313,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
@@ -2393,7 +2393,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
@@ -2473,7 +2473,7 @@
         <v>2</v>
       </c>
       <c r="G9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
@@ -2553,7 +2553,7 @@
         <v>4</v>
       </c>
       <c r="G10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
@@ -2633,7 +2633,7 @@
         <v>4</v>
       </c>
       <c r="G11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
@@ -2713,7 +2713,7 @@
         <v>2</v>
       </c>
       <c r="G12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
@@ -2793,7 +2793,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
@@ -2873,7 +2873,7 @@
         <v>2</v>
       </c>
       <c r="G14" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
@@ -2953,7 +2953,7 @@
         <v>3</v>
       </c>
       <c r="G15" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
@@ -3033,7 +3033,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
@@ -3113,7 +3113,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
@@ -3193,7 +3193,7 @@
         <v>2</v>
       </c>
       <c r="G18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
@@ -3273,7 +3273,7 @@
         <v>3</v>
       </c>
       <c r="G19" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
